--- a/parameters/struct_1front_2back_water_air.xlsx
+++ b/parameters/struct_1front_2back_water_air.xlsx
@@ -624,7 +624,7 @@
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -737,7 +737,7 @@
         <v>3000</v>
       </c>
       <c r="D5" s="22" t="n">
-        <v>0.002</v>
+        <v>100</v>
       </c>
       <c r="E5" s="22" t="n">
         <v>0.25</v>
@@ -761,7 +761,7 @@
         <v>3000</v>
       </c>
       <c r="D6" s="22" t="n">
-        <v>0.266</v>
+        <v>80</v>
       </c>
       <c r="E6" s="22" t="n">
         <v>0.25</v>
